--- a/Original Excel Files/S.xlsx
+++ b/Original Excel Files/S.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466E1B72-F3A7-40E5-86FA-B6C7E36804EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
+    <workbookView xWindow="29880" yWindow="1065" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -258,7 +259,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -321,21 +322,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -347,6 +353,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -395,7 +404,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -428,9 +437,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -463,6 +489,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -638,400 +681,448 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A7:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:G15"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="9">
+        <v>2009</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="7">
-        <v>2009</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>56</v>
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>74</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" t="s">
+        <v>76</v>
       </c>
       <c r="F12" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1984</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="9">
+        <v>1996</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="9">
+        <v>2001</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1991</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="10">
+        <v>1991</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="9">
         <v>1984</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G23" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="9">
+        <v>1988</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>44</v>
+      </c>
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" t="s">
+        <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="G27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" t="s">
-        <v>51</v>
-      </c>
-      <c r="F35" t="s">
-        <v>52</v>
-      </c>
-      <c r="G35" t="s">
-        <v>53</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="9">
+        <v>2005</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1996</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D39" s="7">
-        <v>2001</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="1">
-        <v>1991</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="5">
-        <v>1991</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D44" s="7">
-        <v>1984</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>33</v>
-      </c>
-      <c r="B48" t="s">
-        <v>34</v>
-      </c>
-      <c r="C48" t="s">
-        <v>35</v>
-      </c>
-      <c r="F48" t="s">
-        <v>36</v>
-      </c>
-      <c r="G48" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49" t="s">
-        <v>39</v>
-      </c>
-      <c r="F49" t="s">
-        <v>40</v>
-      </c>
-      <c r="G49" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D50" s="7">
-        <v>1988</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>42</v>
-      </c>
-      <c r="B53" t="s">
-        <v>43</v>
-      </c>
-      <c r="C53" t="s">
-        <v>44</v>
-      </c>
-      <c r="D53" t="s">
-        <v>45</v>
-      </c>
-      <c r="E53" t="s">
-        <v>46</v>
-      </c>
-      <c r="F53" t="s">
-        <v>47</v>
-      </c>
-      <c r="G53" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D58" s="7">
-        <v>2005</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:I58">
+    <sortCondition ref="A1:A58"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1043,7 +1134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
